--- a/V1.4 exe/data.xlsx
+++ b/V1.4 exe/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\V1.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\V1.4 exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79ADEE3-58CE-45CB-B19E-85594EFEB250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3F2445-D645-48EC-B6A5-E613A13A9618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1164" windowWidth="16548" windowHeight="9420" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>ProjectID_ProjectName</t>
   </si>
@@ -41,37 +41,46 @@
     <t>Key Messages</t>
   </si>
   <si>
-    <t>hi hello</t>
-  </si>
-  <si>
-    <t>good bye</t>
-  </si>
-  <si>
-    <t>have a nice day</t>
-  </si>
-  <si>
-    <t>slide_1</t>
-  </si>
-  <si>
-    <t>slide_2</t>
-  </si>
-  <si>
-    <t>slide_3</t>
-  </si>
-  <si>
     <t>respective image</t>
   </si>
   <si>
     <t>popup slides (comma seprtd)</t>
   </si>
   <si>
-    <t>slide_4</t>
-  </si>
-  <si>
-    <t>slide_5,slide_1</t>
-  </si>
-  <si>
-    <t>123_AB</t>
+    <t>Page_1</t>
+  </si>
+  <si>
+    <t>Page_2</t>
+  </si>
+  <si>
+    <t>Page_3</t>
+  </si>
+  <si>
+    <t>Page_6</t>
+  </si>
+  <si>
+    <t>Page_7</t>
+  </si>
+  <si>
+    <t>Page_8</t>
+  </si>
+  <si>
+    <t>Page_9,Page_10</t>
+  </si>
+  <si>
+    <t>Page_11</t>
+  </si>
+  <si>
+    <t>Page_12</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>1234_AB</t>
+  </si>
+  <si>
+    <t>Page_4,Page_5</t>
   </si>
 </sst>
 </file>
@@ -438,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6037C9E2-E54E-4A09-98C3-32313390912A}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,43 +469,78 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/V1.4 exe/data.xlsx
+++ b/V1.4 exe/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\V1.4 exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3F2445-D645-48EC-B6A5-E613A13A9618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6B701F-8EFE-452E-A452-D7D26546EDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
   </bookViews>
@@ -87,16 +87,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -109,13 +101,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,14 +153,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,101 +484,102 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A5:XFD5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/V1.4 exe/data.xlsx
+++ b/V1.4 exe/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\V1.4 exe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\edetail-tool\V1.4 exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6B701F-8EFE-452E-A452-D7D26546EDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496414F0-4D4B-4268-9649-9929608ADD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ProjectID_ProjectName</t>
   </si>
@@ -74,20 +73,38 @@
     <t>Page_12</t>
   </si>
   <si>
-    <t>Slide</t>
-  </si>
-  <si>
     <t>1234_AB</t>
   </si>
   <si>
     <t>Page_4,Page_5</t>
+  </si>
+  <si>
+    <t>key message 2</t>
+  </si>
+  <si>
+    <t>key message 1</t>
+  </si>
+  <si>
+    <t>key message 3</t>
+  </si>
+  <si>
+    <t>key message 4</t>
+  </si>
+  <si>
+    <t>key message 5</t>
+  </si>
+  <si>
+    <t>key message 6</t>
+  </si>
+  <si>
+    <t>key message 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +119,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,15 +127,15 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,11 +150,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,23 +162,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,19 +503,19 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="29.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -510,39 +529,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
+    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -551,9 +570,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -562,17 +581,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>

--- a/V1.4 exe/data.xlsx
+++ b/V1.4 exe/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\edetail-tool\V1.4 exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496414F0-4D4B-4268-9649-9929608ADD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5438E1-809E-45A0-8114-05BE24BDCC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>ProjectID_ProjectName</t>
   </si>
@@ -46,65 +46,38 @@
     <t>popup slides (comma seprtd)</t>
   </si>
   <si>
-    <t>Page_1</t>
-  </si>
-  <si>
-    <t>Page_2</t>
-  </si>
-  <si>
-    <t>Page_3</t>
-  </si>
-  <si>
-    <t>Page_6</t>
-  </si>
-  <si>
-    <t>Page_7</t>
-  </si>
-  <si>
-    <t>Page_8</t>
-  </si>
-  <si>
-    <t>Page_9,Page_10</t>
-  </si>
-  <si>
-    <t>Page_11</t>
-  </si>
-  <si>
-    <t>Page_12</t>
-  </si>
-  <si>
-    <t>1234_AB</t>
-  </si>
-  <si>
-    <t>Page_4,Page_5</t>
-  </si>
-  <si>
-    <t>key message 2</t>
-  </si>
-  <si>
-    <t>key message 1</t>
-  </si>
-  <si>
-    <t>key message 3</t>
-  </si>
-  <si>
-    <t>key message 4</t>
-  </si>
-  <si>
-    <t>key message 5</t>
-  </si>
-  <si>
-    <t>key message 6</t>
-  </si>
-  <si>
-    <t>key message 7</t>
+    <t>11328_Spravato</t>
+  </si>
+  <si>
+    <t>Materiał informacyjny</t>
+  </si>
+  <si>
+    <t>Założenia programu</t>
+  </si>
+  <si>
+    <t>Jak przystąpić do</t>
+  </si>
+  <si>
+    <t>Slide_1</t>
+  </si>
+  <si>
+    <t>Slide_2</t>
+  </si>
+  <si>
+    <t>Slide_3</t>
+  </si>
+  <si>
+    <t>Slide_4</t>
+  </si>
+  <si>
+    <t>Slide_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +112,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -182,9 +161,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -503,7 +480,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -531,71 +508,52 @@
     </row>
     <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>15</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>17</v>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>18</v>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
